--- a/Valores_Separados.xlsx
+++ b/Valores_Separados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telefonicacorp-my.sharepoint.com/personal/claudio_frias_telefonica_com/Documents/Desktop/Deiba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{08852DCC-9702-4DB8-BC3B-D321C0B8A30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0170377F-1B1D-40A3-B358-9864BCD314BE}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{08852DCC-9702-4DB8-BC3B-D321C0B8A30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3BAD32A-5545-4C36-8FF9-5D2358AF859C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8733,7 +8733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8757,7 +8757,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9066,7 +9065,7 @@
   <dimension ref="A1:G1085"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B493" workbookViewId="0">
-      <selection activeCell="E717" sqref="E717:F717"/>
+      <selection activeCell="E878" sqref="E878"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9579,7 +9578,7 @@
       <c r="E22" s="3" t="s">
         <v>1151</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" t="s">
         <v>1904</v>
       </c>
       <c r="G22" t="s">
@@ -13972,7 +13971,7 @@
       <c r="E213" s="3">
         <v>47362223</v>
       </c>
-      <c r="F213" s="11" t="s">
+      <c r="F213" t="s">
         <v>2073</v>
       </c>
       <c r="G213">
@@ -29172,10 +29171,10 @@
       <c r="D874" s="7">
         <v>58.5</v>
       </c>
-      <c r="E874" s="3" t="s">
+      <c r="E874" s="10" t="s">
         <v>1677</v>
       </c>
-      <c r="F874" t="s">
+      <c r="F874" s="8" t="s">
         <v>2581</v>
       </c>
       <c r="G874" t="s">
@@ -29218,10 +29217,10 @@
       <c r="D876" s="7">
         <v>33.048000000000002</v>
       </c>
-      <c r="E876" s="3" t="s">
+      <c r="E876" s="10" t="s">
         <v>1679</v>
       </c>
-      <c r="F876" t="s">
+      <c r="F876" s="8" t="s">
         <v>2583</v>
       </c>
       <c r="G876">
@@ -29241,10 +29240,10 @@
       <c r="D877" s="7">
         <v>31.777000000000001</v>
       </c>
-      <c r="E877" s="3" t="s">
+      <c r="E877" s="10" t="s">
         <v>1680</v>
       </c>
-      <c r="F877" t="s">
+      <c r="F877" s="8" t="s">
         <v>2584</v>
       </c>
       <c r="G877">

--- a/Valores_Separados.xlsx
+++ b/Valores_Separados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telefonicacorp-my.sharepoint.com/personal/claudio_frias_telefonica_com/Documents/Desktop/Deiba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{08852DCC-9702-4DB8-BC3B-D321C0B8A30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3BAD32A-5545-4C36-8FF9-5D2358AF859C}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{08852DCC-9702-4DB8-BC3B-D321C0B8A30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20A492D5-6431-47A9-9113-FDCD2BC5C3D3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9064,8 +9064,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1085"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B493" workbookViewId="0">
-      <selection activeCell="E878" sqref="E878"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E193" sqref="E193:F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11540,7 +11540,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -11553,17 +11553,17 @@
       <c r="D108" s="7">
         <v>23.526</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="10" t="s">
         <v>1157</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="8" t="s">
         <v>1975</v>
       </c>
       <c r="G108">
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -11576,17 +11576,17 @@
       <c r="D109" s="7">
         <v>24.777999999999999</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="8" t="s">
         <v>1976</v>
       </c>
       <c r="G109" t="s">
         <v>2855</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -11599,10 +11599,10 @@
       <c r="D110" s="7">
         <v>44.098999999999997</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="10" t="s">
         <v>1159</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="8" t="s">
         <v>1976</v>
       </c>
       <c r="G110">
@@ -11655,7 +11655,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>131</v>
       </c>
@@ -12184,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>140</v>
       </c>
@@ -12197,10 +12197,10 @@
       <c r="D136" s="7">
         <v>25.771000000000001</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="10" t="s">
         <v>1173</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F136" s="8" t="s">
         <v>1999</v>
       </c>
       <c r="G136">
@@ -12253,7 +12253,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>143</v>
       </c>
@@ -12266,17 +12266,17 @@
       <c r="D139" s="7">
         <v>13.7</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="10" t="s">
         <v>1175</v>
       </c>
-      <c r="F139" t="s">
+      <c r="F139" s="8" t="s">
         <v>2002</v>
       </c>
       <c r="G139">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>144</v>
       </c>
@@ -12289,10 +12289,10 @@
       <c r="D140" s="7">
         <v>52</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="10" t="s">
         <v>1176</v>
       </c>
-      <c r="F140" t="s">
+      <c r="F140" s="8" t="s">
         <v>2003</v>
       </c>
       <c r="G140">
@@ -12345,7 +12345,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -12358,10 +12358,10 @@
       <c r="D143" s="7">
         <v>84.6</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="10" t="s">
         <v>1179</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="8" t="s">
         <v>2006</v>
       </c>
       <c r="G143" t="s">
@@ -12874,7 +12874,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>170</v>
       </c>
@@ -12887,10 +12887,10 @@
       <c r="D166" s="7">
         <v>32.311999999999998</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="10" t="s">
         <v>1199</v>
       </c>
-      <c r="F166" t="s">
+      <c r="F166" s="8" t="s">
         <v>2029</v>
       </c>
       <c r="G166" t="s">
@@ -12989,7 +12989,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>175</v>
       </c>
@@ -13002,10 +13002,10 @@
       <c r="D171" s="7">
         <v>68.536000000000001</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="10" t="s">
         <v>1204</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="8" t="s">
         <v>2029</v>
       </c>
       <c r="G171">
@@ -13219,7 +13219,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>185</v>
       </c>
@@ -13232,10 +13232,10 @@
       <c r="D181" s="7">
         <v>69.7</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="10" t="s">
         <v>1212</v>
       </c>
-      <c r="F181" t="s">
+      <c r="F181" s="8" t="s">
         <v>2043</v>
       </c>
       <c r="G181">
@@ -13403,7 +13403,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>193</v>
       </c>
@@ -13495,7 +13495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>197</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>200</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>201</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>202</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>203</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>205</v>
       </c>
@@ -13909,7 +13909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>215</v>
       </c>
@@ -13932,7 +13932,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>216</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>218</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>219</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>222</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>224</v>
       </c>
@@ -14208,7 +14208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>228</v>
       </c>
@@ -14254,7 +14254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>230</v>
       </c>
@@ -14277,7 +14277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>231</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>232</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>234</v>
       </c>
@@ -14369,7 +14369,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>235</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>236</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>237</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>244</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>247</v>
       </c>
@@ -14668,7 +14668,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>248</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>261</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>262</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>265</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>300</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>301</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>331</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>343</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>380</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>395</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>400</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>401</v>
       </c>
@@ -18210,7 +18210,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>402</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>411</v>
       </c>
@@ -18693,7 +18693,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>423</v>
       </c>
@@ -18900,7 +18900,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>432</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>447</v>
       </c>
@@ -19314,7 +19314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>450</v>
       </c>
@@ -19406,7 +19406,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>454</v>
       </c>
@@ -19544,7 +19544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>460</v>
       </c>
@@ -19705,7 +19705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>467</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>468</v>
       </c>
@@ -19797,7 +19797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>471</v>
       </c>
@@ -19912,7 +19912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>476</v>
       </c>
@@ -19935,7 +19935,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>477</v>
       </c>
@@ -20004,7 +20004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>480</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>484</v>
       </c>
@@ -20142,7 +20142,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="482" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>486</v>
       </c>
@@ -20188,7 +20188,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>488</v>
       </c>
@@ -20234,7 +20234,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>490</v>
       </c>
@@ -20257,7 +20257,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>491</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>492</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>493</v>
       </c>
@@ -20372,7 +20372,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>496</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>498</v>
       </c>
@@ -20441,7 +20441,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>499</v>
       </c>
@@ -20464,7 +20464,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>500</v>
       </c>
@@ -20487,7 +20487,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>501</v>
       </c>
@@ -20510,7 +20510,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>502</v>
       </c>
@@ -20533,7 +20533,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>503</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>504</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>505</v>
       </c>
@@ -20648,7 +20648,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>508</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>509</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>512</v>
       </c>
@@ -20786,7 +20786,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>514</v>
       </c>
@@ -20809,7 +20809,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>515</v>
       </c>
@@ -20832,7 +20832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>516</v>
       </c>
@@ -20993,7 +20993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="519" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>523</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>524</v>
       </c>
@@ -21039,7 +21039,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="521" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>525</v>
       </c>
@@ -21062,7 +21062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>526</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>527</v>
       </c>
@@ -21108,7 +21108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>528</v>
       </c>
@@ -21131,7 +21131,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="525" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>529</v>
       </c>
@@ -21154,7 +21154,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="526" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>530</v>
       </c>
@@ -21177,7 +21177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="527" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>531</v>
       </c>
@@ -21200,7 +21200,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="528" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>532</v>
       </c>
@@ -21223,7 +21223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>533</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>534</v>
       </c>
@@ -21269,7 +21269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>535</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>542</v>
       </c>
@@ -21499,7 +21499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>545</v>
       </c>
@@ -21522,7 +21522,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>546</v>
       </c>
@@ -21545,7 +21545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>547</v>
       </c>
@@ -21798,7 +21798,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>558</v>
       </c>
@@ -21844,7 +21844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>560</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>562</v>
       </c>
@@ -21913,7 +21913,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>563</v>
       </c>
@@ -21936,7 +21936,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>564</v>
       </c>
@@ -21959,7 +21959,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>565</v>
       </c>
@@ -21982,7 +21982,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>566</v>
       </c>
@@ -22005,7 +22005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>567</v>
       </c>
@@ -22028,7 +22028,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>568</v>
       </c>
@@ -22258,7 +22258,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>578</v>
       </c>
@@ -22281,7 +22281,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>579</v>
       </c>
@@ -22304,7 +22304,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>580</v>
       </c>
@@ -22327,7 +22327,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>581</v>
       </c>
@@ -22465,7 +22465,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>587</v>
       </c>
@@ -22626,7 +22626,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="590" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>594</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="593" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>597</v>
       </c>
@@ -22718,7 +22718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>598</v>
       </c>
@@ -22741,7 +22741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="595" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>599</v>
       </c>
@@ -22764,7 +22764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>600</v>
       </c>
@@ -22787,7 +22787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>601</v>
       </c>
@@ -22810,7 +22810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>602</v>
       </c>
@@ -22833,7 +22833,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="599" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>603</v>
       </c>
@@ -22856,7 +22856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="600" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>604</v>
       </c>
@@ -22879,7 +22879,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="601" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>605</v>
       </c>
@@ -22902,7 +22902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>606</v>
       </c>
@@ -22925,7 +22925,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="603" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>607</v>
       </c>
@@ -22948,7 +22948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="604" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>608</v>
       </c>
@@ -22971,7 +22971,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="605" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>609</v>
       </c>
@@ -22994,7 +22994,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="606" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>610</v>
       </c>
@@ -23017,7 +23017,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="607" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>611</v>
       </c>
@@ -23040,7 +23040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>612</v>
       </c>
@@ -23063,7 +23063,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="609" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>613</v>
       </c>
@@ -23086,7 +23086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="610" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>614</v>
       </c>
@@ -23109,7 +23109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="611" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>615</v>
       </c>
@@ -23132,7 +23132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="612" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>616</v>
       </c>
@@ -23155,7 +23155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="613" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>617</v>
       </c>
@@ -23178,7 +23178,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="614" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>618</v>
       </c>
@@ -23201,7 +23201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="615" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>619</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="618" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>622</v>
       </c>
@@ -23339,7 +23339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="621" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>625</v>
       </c>
@@ -23362,7 +23362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>626</v>
       </c>
@@ -23385,7 +23385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="623" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>627</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="624" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>628</v>
       </c>
@@ -23431,7 +23431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="625" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>629</v>
       </c>
@@ -23454,7 +23454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="626" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>630</v>
       </c>
@@ -23477,7 +23477,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="627" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>631</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="628" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>632</v>
       </c>
@@ -23523,7 +23523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="629" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>633</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="630" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>634</v>
       </c>
@@ -23569,7 +23569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="631" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>635</v>
       </c>
@@ -23592,7 +23592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="632" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>636</v>
       </c>
@@ -23615,7 +23615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="633" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>637</v>
       </c>
@@ -23638,7 +23638,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="634" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>638</v>
       </c>
@@ -23661,7 +23661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="635" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>639</v>
       </c>
@@ -23684,7 +23684,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="636" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>640</v>
       </c>
@@ -23707,7 +23707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>641</v>
       </c>
@@ -23730,7 +23730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="638" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>642</v>
       </c>
@@ -23753,7 +23753,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="639" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>643</v>
       </c>
@@ -23776,7 +23776,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="640" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>644</v>
       </c>
@@ -23799,7 +23799,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="641" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>645</v>
       </c>
@@ -23822,7 +23822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>646</v>
       </c>
@@ -23845,7 +23845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="643" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>647</v>
       </c>
@@ -23868,7 +23868,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="644" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>648</v>
       </c>
@@ -23891,7 +23891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="645" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>649</v>
       </c>
@@ -23914,7 +23914,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="646" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>650</v>
       </c>
@@ -23937,7 +23937,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="647" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>651</v>
       </c>
@@ -23960,7 +23960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="648" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>652</v>
       </c>
@@ -24420,7 +24420,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="668" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>672</v>
       </c>
@@ -24443,7 +24443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="669" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>673</v>
       </c>
@@ -24466,7 +24466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>674</v>
       </c>
@@ -24489,7 +24489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>675</v>
       </c>
@@ -24535,7 +24535,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="673" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>677</v>
       </c>
@@ -24558,7 +24558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>678</v>
       </c>
@@ -24581,7 +24581,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="675" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>679</v>
       </c>
@@ -24604,7 +24604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="676" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>680</v>
       </c>
@@ -24627,7 +24627,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="677" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>681</v>
       </c>
@@ -24650,7 +24650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="678" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>682</v>
       </c>
@@ -24673,7 +24673,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="679" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>683</v>
       </c>
@@ -24696,7 +24696,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="680" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>684</v>
       </c>
@@ -24742,7 +24742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="682" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>686</v>
       </c>
@@ -24765,7 +24765,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="683" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>687</v>
       </c>
@@ -24788,7 +24788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="684" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>688</v>
       </c>
@@ -24811,7 +24811,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="685" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>689</v>
       </c>
@@ -24834,7 +24834,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="686" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>690</v>
       </c>
@@ -24995,7 +24995,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="693" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>697</v>
       </c>
@@ -25018,7 +25018,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="694" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>698</v>
       </c>
@@ -25041,7 +25041,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="695" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>699</v>
       </c>
@@ -25064,7 +25064,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="696" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>700</v>
       </c>
@@ -25087,7 +25087,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="697" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>701</v>
       </c>
@@ -25156,7 +25156,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="700" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>704</v>
       </c>
@@ -25179,7 +25179,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="701" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>705</v>
       </c>
@@ -25409,7 +25409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>715</v>
       </c>
@@ -25432,7 +25432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>716</v>
       </c>
@@ -25455,7 +25455,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="713" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>717</v>
       </c>
@@ -25478,7 +25478,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="714" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>718</v>
       </c>
@@ -25501,7 +25501,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="715" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>719</v>
       </c>
@@ -25524,7 +25524,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="716" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>720</v>
       </c>
@@ -27249,7 +27249,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="791" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>795</v>
       </c>
@@ -27272,7 +27272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="792" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>796</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="793" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>797</v>
       </c>
@@ -27318,7 +27318,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="794" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>798</v>
       </c>
@@ -27341,7 +27341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="795" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>799</v>
       </c>
@@ -27364,7 +27364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="796" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>800</v>
       </c>
@@ -27387,7 +27387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="797" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>801</v>
       </c>
@@ -27410,7 +27410,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="798" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>802</v>
       </c>
@@ -27433,7 +27433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="799" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>803</v>
       </c>
@@ -27456,7 +27456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="800" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>804</v>
       </c>
@@ -27479,7 +27479,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="801" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>805</v>
       </c>
@@ -27502,7 +27502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="802" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>806</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="803" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>807</v>
       </c>
@@ -27548,7 +27548,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="804" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>808</v>
       </c>
@@ -27571,7 +27571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>809</v>
       </c>
@@ -27594,7 +27594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>810</v>
       </c>
@@ -27617,7 +27617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="807" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>811</v>
       </c>
@@ -27640,7 +27640,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="808" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>812</v>
       </c>
@@ -27663,7 +27663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="809" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>813</v>
       </c>
@@ -27686,7 +27686,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="810" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>814</v>
       </c>
@@ -27709,7 +27709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="811" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>815</v>
       </c>
@@ -27732,7 +27732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="812" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>816</v>
       </c>
@@ -27755,7 +27755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>817</v>
       </c>
@@ -28008,7 +28008,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="824" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>828</v>
       </c>
@@ -28031,7 +28031,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="825" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>829</v>
       </c>
@@ -28928,7 +28928,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="864" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>868</v>
       </c>
@@ -28974,7 +28974,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="866" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>870</v>
       </c>
@@ -29020,7 +29020,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="868" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>872</v>
       </c>
@@ -29043,7 +29043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="869" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>873</v>
       </c>
@@ -29066,7 +29066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="870" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>874</v>
       </c>
@@ -29089,7 +29089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="871" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>875</v>
       </c>
@@ -29112,7 +29112,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="872" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>876</v>
       </c>
@@ -29135,7 +29135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="873" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>877</v>
       </c>
@@ -29181,7 +29181,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="875" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>879</v>
       </c>
@@ -29263,17 +29263,17 @@
       <c r="D878" s="7">
         <v>29.8</v>
       </c>
-      <c r="E878" s="3" t="s">
+      <c r="E878" s="10" t="s">
         <v>1681</v>
       </c>
-      <c r="F878" t="s">
+      <c r="F878" s="8" t="s">
         <v>2585</v>
       </c>
       <c r="G878">
         <v>3</v>
       </c>
     </row>
-    <row r="879" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>883</v>
       </c>
@@ -29296,7 +29296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="880" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>884</v>
       </c>
@@ -29319,7 +29319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="881" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>885</v>
       </c>
@@ -29355,17 +29355,17 @@
       <c r="D882" s="7">
         <v>93.99</v>
       </c>
-      <c r="E882" s="3" t="s">
+      <c r="E882" s="10" t="s">
         <v>1685</v>
       </c>
-      <c r="F882" t="s">
+      <c r="F882" s="8" t="s">
         <v>2585</v>
       </c>
       <c r="G882" t="s">
         <v>2855</v>
       </c>
     </row>
-    <row r="883" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>887</v>
       </c>
@@ -29388,7 +29388,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="884" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>888</v>
       </c>
@@ -29457,7 +29457,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="887" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>891</v>
       </c>
@@ -29480,7 +29480,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="888" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>892</v>
       </c>
@@ -29503,7 +29503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>893</v>
       </c>
@@ -29526,7 +29526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="890" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>894</v>
       </c>
@@ -29549,7 +29549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="891" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>895</v>
       </c>
@@ -29572,7 +29572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="892" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>896</v>
       </c>
@@ -29595,7 +29595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="893" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>897</v>
       </c>
@@ -29618,7 +29618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="894" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>898</v>
       </c>
@@ -29710,7 +29710,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="898" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>902</v>
       </c>
@@ -29733,7 +29733,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="899" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A899" t="s">
         <v>903</v>
       </c>
@@ -29756,7 +29756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="900" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A900" t="s">
         <v>904</v>
       </c>
@@ -29779,7 +29779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="901" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901" t="s">
         <v>905</v>
       </c>
@@ -29802,7 +29802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="902" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>906</v>
       </c>
@@ -29825,7 +29825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="903" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>907</v>
       </c>
@@ -29848,7 +29848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="904" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>908</v>
       </c>
@@ -29871,7 +29871,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="905" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>909</v>
       </c>
@@ -29894,7 +29894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="906" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>910</v>
       </c>
@@ -29917,7 +29917,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="907" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>911</v>
       </c>
@@ -29940,7 +29940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="908" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>912</v>
       </c>
@@ -29963,7 +29963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="909" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>913</v>
       </c>
@@ -29986,7 +29986,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="910" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>914</v>
       </c>
@@ -30009,7 +30009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="911" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>915</v>
       </c>
@@ -30032,7 +30032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>916</v>
       </c>
@@ -30055,7 +30055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>917</v>
       </c>
@@ -30078,7 +30078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="914" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>918</v>
       </c>
@@ -30101,7 +30101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="915" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>919</v>
       </c>
@@ -30124,7 +30124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="916" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>920</v>
       </c>
@@ -30147,7 +30147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="917" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>921</v>
       </c>
@@ -30170,7 +30170,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="918" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>922</v>
       </c>
@@ -30193,7 +30193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="919" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>923</v>
       </c>
@@ -30216,7 +30216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="920" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>924</v>
       </c>
@@ -30239,7 +30239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="921" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>925</v>
       </c>
@@ -30262,7 +30262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="922" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>926</v>
       </c>
@@ -30285,7 +30285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="923" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>927</v>
       </c>
@@ -30308,7 +30308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="924" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>928</v>
       </c>
@@ -30331,7 +30331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="925" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>929</v>
       </c>
@@ -30354,7 +30354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="926" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>930</v>
       </c>
@@ -30377,7 +30377,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="927" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>931</v>
       </c>
@@ -30400,7 +30400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="928" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>932</v>
       </c>
@@ -30423,7 +30423,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="929" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>933</v>
       </c>
@@ -30446,7 +30446,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="930" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>934</v>
       </c>
@@ -30469,7 +30469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="931" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>935</v>
       </c>
@@ -30492,7 +30492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="932" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>936</v>
       </c>
@@ -30515,7 +30515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="933" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>937</v>
       </c>
@@ -30538,7 +30538,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="934" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>938</v>
       </c>
@@ -30584,7 +30584,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="936" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>940</v>
       </c>
@@ -30814,7 +30814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
         <v>950</v>
       </c>
@@ -30837,7 +30837,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="947" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A947" t="s">
         <v>951</v>
       </c>
@@ -31412,7 +31412,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="972" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A972" t="s">
         <v>976</v>
       </c>
@@ -32746,7 +32746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1030" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1030" t="s">
         <v>1034</v>
       </c>
@@ -32792,7 +32792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1032" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1032" t="s">
         <v>1036</v>
       </c>
@@ -33160,7 +33160,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1048" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
         <v>1052</v>
       </c>
@@ -33183,7 +33183,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1049" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
         <v>1053</v>
       </c>
@@ -33206,7 +33206,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1050" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
         <v>1054</v>
       </c>
@@ -33229,7 +33229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1051" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
         <v>1055</v>
       </c>
@@ -33252,7 +33252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1052" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
         <v>1056</v>
       </c>
@@ -33275,7 +33275,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1053" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
         <v>1057</v>
       </c>
@@ -33298,7 +33298,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1054" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
         <v>1058</v>
       </c>
@@ -33321,7 +33321,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1055" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
         <v>1059</v>
       </c>
@@ -33357,17 +33357,17 @@
       <c r="D1056" s="7">
         <v>64.236000000000004</v>
       </c>
-      <c r="E1056" s="3" t="s">
+      <c r="E1056" s="10" t="s">
         <v>1856</v>
       </c>
-      <c r="F1056" t="s">
+      <c r="F1056" s="8" t="s">
         <v>2732</v>
       </c>
       <c r="G1056">
         <v>2</v>
       </c>
     </row>
-    <row r="1057" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
         <v>1061</v>
       </c>
@@ -33390,7 +33390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1058" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
         <v>1062</v>
       </c>
@@ -33413,7 +33413,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1059" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
         <v>1063</v>
       </c>
@@ -33735,7 +33735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1073" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
         <v>1077</v>
       </c>
@@ -33781,7 +33781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1075" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1075" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1075" t="s">
         <v>1079</v>
       </c>
@@ -33827,7 +33827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1077" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1077" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1077" t="s">
         <v>1081</v>
       </c>
@@ -33896,7 +33896,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1080" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1080" t="s">
         <v>1084</v>
       </c>
@@ -33919,7 +33919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1081" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1081" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1081" t="s">
         <v>1085</v>
       </c>
@@ -33942,7 +33942,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1082" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1082" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1082" t="s">
         <v>1086</v>
       </c>
@@ -33988,7 +33988,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="1084" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1084" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1084" t="s">
         <v>1088</v>
       </c>
@@ -34011,7 +34011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1085" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="1085" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1085" t="s">
         <v>1089</v>
       </c>
@@ -34038,6 +34038,29 @@
   <autoFilter ref="A1:F1085" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters>
+        <filter val="11860-FILTRO COMBUSTIBLE KOMATSU"/>
+        <filter val="AS-FILTRO LINEA FRENO"/>
+        <filter val="BASE FILTRO COMBUSTIBLE FF5052 / FF5138"/>
+        <filter val="BOWL INTERCAMBIABLE PARA FILTRO DE COMBUSTIBLE"/>
+        <filter val="CONJUNTO FILTRO DECANTADOR CASE 580N"/>
+        <filter val="ELEMENTO PREFILTRO COMB SANY SY35"/>
+        <filter val="FILTRO ACEITE BALWIN"/>
+        <filter val="FILTRO ACEITE BALWIN /LF17509 / PSL475"/>
+        <filter val="FILTRO ACEITE BALWIN LF16109"/>
+        <filter val="FILTRO ACEITE ELEMENTO OE0163 HINO 300"/>
+        <filter val="FILTRO ACEITE FLEETGUARD"/>
+        <filter val="FILTRO ACEITE FLEETGUARD / PSL171"/>
+        <filter val="FILTRO ACEITE JD 310"/>
+        <filter val="FILTRO ACEITE JS ASAKASHI FUSO JAPON"/>
+        <filter val="FILTRO ACEITE MANN"/>
+        <filter val="FILTRO ACEITE MOTOR P558616 /LF3345 /LF3805 PSL282"/>
+        <filter val="FILTRO ACEITE MOTOR YANMAR"/>
+        <filter val="FILTRO ACEITE ORIGINAL CNH"/>
+        <filter val="FILTRO ACEITE TECFIL"/>
+        <filter val="FILTRO ACEITE TECFIL 322-3155"/>
+        <filter val="FILTRO ACEITE VW DELIVERY"/>
+        <filter val="FILTRO ACEITE VW ORIGINAL"/>
+        <filter val="FILTRO ADBLUE TECFIL"/>
         <filter val="FILTRO AIRE"/>
         <filter val="FILTRO AIRE CABINA"/>
         <filter val="FILTRO AIRE CABINA EXT SANY"/>
@@ -34071,6 +34094,170 @@
         <filter val="FILTRO AIRE SECUNDARIO SANY"/>
         <filter val="FILTRO AIRE SECUNDARIO TECFIL"/>
         <filter val="FILTRO AIRE TECFIL AP5460"/>
+        <filter val="FILTRO CABINA 570-575 ST/ 580SV"/>
+        <filter val="FILTRO CABINA 580N"/>
+        <filter val="FILTRO CABINA CAT"/>
+        <filter val="FILTRO CABINA CNH 570"/>
+        <filter val="FILTRO CABINA FLEETGUARD"/>
+        <filter val="FILTRO CABINA INT CAT"/>
+        <filter val="FILTRO CABINA LBX210B"/>
+        <filter val="FILTRO CABINA TECFIL"/>
+        <filter val="FILTRO COMBUSTIBLE"/>
+        <filter val="FILTRO COMBUSTIBLE / FF5135"/>
+        <filter val="FILTRO COMBUSTIBLE ACDELCO 93280/ MANN 932/80"/>
+        <filter val="FILTRO COMBUSTIBLE BALDWIN"/>
+        <filter val="FILTRO COMBUSTIBLE BALWIN"/>
+        <filter val="FILTRO COMBUSTIBLE BALWIN / FS36210"/>
+        <filter val="FILTRO COMBUSTIBLE CAT ORIGINAL 236D3"/>
+        <filter val="FILTRO COMBUSTIBLE CNH SR175B SENSOR"/>
+        <filter val="FILTRO COMBUSTIBLE CNH/ FS19927 / FS19821"/>
+        <filter val="FILTRO COMBUSTIBLE CX210C LBX X3"/>
+        <filter val="FILTRO COMBUSTIBLE DECANTADOR CNH FS19972"/>
+        <filter val="FILTRO COMBUSTIBLE DONALDSON"/>
+        <filter val="FILTRO COMBUSTIBLE DONALDSON FS1251"/>
+        <filter val="FILTRO COMBUSTIBLE ECOM"/>
+        <filter val="FILTRO COMBUSTIBLE ELEMENTO"/>
+        <filter val="FILTRO COMBUSTIBLE ELEMENTO FLEETGUARD"/>
+        <filter val="FILTRO COMBUSTIBLE FG WILSON"/>
+        <filter val="FILTRO COMBUSTIBLE FLEETGUARD"/>
+        <filter val="FILTRO COMBUSTIBLE FLEETGUARD/ BF1375"/>
+        <filter val="FILTRO COMBUSTIBLE FS20121 GENUINE FILTERS"/>
+        <filter val="FILTRO COMBUSTIBLE IZUSU CX130/210C"/>
+        <filter val="FILTRO COMBUSTIBLE JMC VIGUS"/>
+        <filter val="FILTRO COMBUSTIBLE JS FE1041"/>
+        <filter val="FILTRO COMBUSTIBLE JS FE1051"/>
+        <filter val="FILTRO COMBUSTIBLE MANN"/>
+        <filter val="FILTRO COMBUSTIBLE MANN WK932/80"/>
+        <filter val="FILTRO COMBUSTIBLE RACOR RAMA"/>
+        <filter val="FILTRO COMBUSTIBLE SANY SY35"/>
+        <filter val="FILTRO COMBUSTIBLE SEP FG WILSON"/>
+        <filter val="FILTRO COMBUSTIBLE SEP FLEETGUARD"/>
+        <filter val="FILTRO COMBUSTIBLE SEP. FLEETGUARD"/>
+        <filter val="FILTRO COMBUSTIBLE SEPARADOR"/>
+        <filter val="FILTRO COMBUSTIBLE SEPARADOR RACOR"/>
+        <filter val="FILTRO COMBUSTIBLE SR200"/>
+        <filter val="FILTRO COMBUSTIBLE TECFIL"/>
+        <filter val="FILTRO COMBUSTIBLE TECFIL PSC75"/>
+        <filter val="FILTRO COOLANT FLEETGUARD"/>
+        <filter val="FILTRO DE ACEITE"/>
+        <filter val="FILTRO DE ACEITE / LF17556"/>
+        <filter val="FILTRO DE ACEITE AUTECH"/>
+        <filter val="FILTRO DE ACEITE BALDWIN"/>
+        <filter val="FILTRO DE ACEITE CNH"/>
+        <filter val="FILTRO DE ACEITE ELEMENTO"/>
+        <filter val="FILTRO DE ACEITE FLEETGUARD"/>
+        <filter val="FILTRO DE ACEITE JAC X200"/>
+        <filter val="FILTRO DE ACEITE MANN"/>
+        <filter val="FILTRO DE ACEITE TECFIL"/>
+        <filter val="FILTRO DE ACEITE TECFIL / LF3376"/>
+        <filter val="FILTRO DE AIRE"/>
+        <filter val="FILTRO DE AIRE ARS3003 / AF26395"/>
+        <filter val="FILTRO DE AIRE BALWIN"/>
+        <filter val="FILTRO DE AIRE CABINA EXTERIOR CX210C BALW"/>
+        <filter val="FILTRO DE AIRE FLEEDGUARD"/>
+        <filter val="FILTRO DE AIRE FLEETGUARD"/>
+        <filter val="FILTRO DE AIRE JACX200"/>
+        <filter val="FILTRO DE AIRE MOTOBOMBA"/>
+        <filter val="FILTRO DE AIRE PRIMARIO"/>
+        <filter val="FILTRO DE AIRE PRIMARIO /AF26393"/>
+        <filter val="FILTRO DE AIRE PRIMARIO BALDWIN"/>
+        <filter val="FILTRO DE AIRE PRIMARIO BALWIN"/>
+        <filter val="FILTRO DE AIRE PRIMARIO DONALDSON XE215"/>
+        <filter val="FILTRO DE AIRE PRIMARIO SAMPIYON"/>
+        <filter val="FILTRO DE AIRE PRIMARIO TECFIL"/>
+        <filter val="FILTRO DE AIRE SEC"/>
+        <filter val="FILTRO DE AIRE SEC /AF26394"/>
+        <filter val="FILTRO DE AIRE SEC BALWIN"/>
+        <filter val="FILTRO DE AIRE SEC CNH 570 575 ST NEW HOLLAND"/>
+        <filter val="FILTRO DE AIRE SEC FLEETGUARD"/>
+        <filter val="FILTRO DE AIRE SEC TECFIL AS836"/>
+        <filter val="FILTRO DE AIRE SECUNDARIO BALDWIN"/>
+        <filter val="FILTRO DE AIRE SECUNDARIO BALWIN"/>
+        <filter val="FILTRO DE AIRE SECUNDARIO FLEETGUARD"/>
+        <filter val="FILTRO DE AIRE SECUNDARIO S630 -RS5748"/>
+        <filter val="FILTRO DE AIRE SECUNDARIO SAMPIYON"/>
+        <filter val="FILTRO DE AIRE SECUNDARIO TECFIL"/>
+        <filter val="FILTRO DE AIRE SECUNDARIO TECFIL AF1843"/>
+        <filter val="FILTRO DE AIRE TECFIL"/>
+        <filter val="FILTRO DE CABINA VW CONSTALATTION ORIGINAL"/>
+        <filter val="FILTRO DE CEITE P550777"/>
+        <filter val="FILTRO DE COMBUSTIBLE"/>
+        <filter val="FILTRO DE COMBUSTIBLE / FF5794"/>
+        <filter val="FILTRO DE COMBUSTIBLE / FS19975"/>
+        <filter val="FILTRO DE COMBUSTIBLE 2 FLEETGUARD"/>
+        <filter val="FILTRO DE COMBUSTIBLE BALDWIN"/>
+        <filter val="FILTRO DE COMBUSTIBLE BALWIN"/>
+        <filter val="FILTRO DE COMBUSTIBLE BALWIN FF5786"/>
+        <filter val="FILTRO DE COMBUSTIBLE CAT 236B"/>
+        <filter val="FILTRO DE COMBUSTIBLE CNH"/>
+        <filter val="FILTRO DE COMBUSTIBLE DONALDSON FS19934"/>
+        <filter val="FILTRO DE COMBUSTIBLE ELEMENTO FLEETGUARD"/>
+        <filter val="FILTRO DE COMBUSTIBLE ELEMENTO TECFIL"/>
+        <filter val="FILTRO DE COMBUSTIBLE FLEETGUARD"/>
+        <filter val="FILTRO DE COMBUSTIBLE ORIGINAL / FF5786 / PF7983"/>
+        <filter val="FILTRO DE COMBUSTIBLE TECFIL"/>
+        <filter val="FILTRO DE COMBUSTIBLE TECFIL ELEMENTO"/>
+        <filter val="FILTRO DE COMBUSTIBLE TECFIL PSD160/3"/>
+        <filter val="FILTRO DE COMBUSTIBLE TECFIL PSD530/1"/>
+        <filter val="FILTRO DE COMBUSTIBLE TEFFIL"/>
+        <filter val="FILTRO DE COMBUTIBLE BALDWIN"/>
+        <filter val="FILTRO DE HIDRAULICO LINEA"/>
+        <filter val="FILTRO DE PETROLEO TECFIL"/>
+        <filter val="FILTRO DE TRANSMISION 570SN ORIGINAL"/>
+        <filter val="FILTRO ELEMENTO COMBUSTIBLE"/>
+        <filter val="FILTRO ELEMENTO RAMA"/>
+        <filter val="FILTRO ELEMENTO YANMAR ORIGINAL"/>
+        <filter val="FILTRO HIDRAULICO"/>
+        <filter val="FILTRO HIDRAULICO BALDWIN"/>
+        <filter val="FILTRO HIDRAULICO BALWIN"/>
+        <filter val="FILTRO HIDRAULICO CHN TRANSMISION"/>
+        <filter val="FILTRO HIDRAULICO CNH ORIGINAL"/>
+        <filter val="FILTRO HIDRAULICO ELEMENTO BOBCAT"/>
+        <filter val="FILTRO HIDRAULICO FLEETGUARD"/>
+        <filter val="FILTRO HIDRAULICO FLETGUARD"/>
+        <filter val="FILTRO HIDRAULICO ORIGINAL CNH PRINCIPAL"/>
+        <filter val="FILTRO HIDRAULICO PILOTAJE"/>
+        <filter val="FILTRO HIDRAULICO RETORNO"/>
+        <filter val="FILTRO HIDRAULICO SUMITOMO MMJ80050"/>
+        <filter val="FILTRO HIDRAULICO TECFIL"/>
+        <filter val="FILTRO LINEA 8MM KOREA"/>
+        <filter val="FILTRO LINEA BALWIN"/>
+        <filter val="FILTRO LINEA CAT 236 B"/>
+        <filter val="FILTRO LINEA FLEETGUARD"/>
+        <filter val="FILTRO RESPIRADERO HIDRAULICO CASE CX210C"/>
+        <filter val="FILTRO RESPIRADERO HIDRAULICO CX210C ORIGINAL"/>
+        <filter val="FILTRO RESPIRADOR FLEETGUARD"/>
+        <filter val="FILTRO SECADOR DE AIRE VOKWAGEN"/>
+        <filter val="FILTRO SECADOR TECFIL 4329011002 WABCO"/>
+        <filter val="FILTRO SEPARADOR COMB. FLTSY215"/>
+        <filter val="FILTRO SEPARADOR COMBUSTIBLE ALTA EFICIENCIA CAT 3113901"/>
+        <filter val="FILTRO SEPARADOR DE ACEITE FLEETGUARD"/>
+        <filter val="FILTRO SEPARADOR DE COMBUSTIBLE TECFIL"/>
+        <filter val="FILTRO SEPARADOR DE COMBUSTIBLE TECFIL / FS19966"/>
+        <filter val="FILTRO SEPARADOR DE ELEMENTOS CAT"/>
+        <filter val="FILTRO SEPARADOR FUEL MANAGER"/>
+        <filter val="FILTRO TRANSMICION FLEETGUARD"/>
+        <filter val="FILTRO TRANSMISION TECFIL"/>
+        <filter val="FILTRO VALVULA DESPICHE DELIVERY 11180"/>
+        <filter val="Kit de filtro Prim-Sec Sampiyon"/>
+        <filter val="KIT DE FILTROS BASICO 580N"/>
+        <filter val="KIT DE FILTROS BASICO B97W KOMATSU"/>
+        <filter val="KIT DE FILTROS BASICO SR200"/>
+        <filter val="KIT DE FILTROS CAMION JAC 1042-1040"/>
+        <filter val="KIT DE FILTROS DE AIRE XCMG 310-225 ULC"/>
+        <filter val="KIT DE FILTROS HINNO 300"/>
+        <filter val="KIT DE FILTROS HYUNDAI MIGHTY"/>
+        <filter val="KIT DE FILTROS JS ASAKASHI TOYOTA HILUX 2.4"/>
+        <filter val="KIT DE FILTROS MAXUS C35"/>
+        <filter val="KIT DE FILTROS MAXUS T60"/>
+        <filter val="KIT DE FILTROS SR175"/>
+        <filter val="KIT DE FILTROS WINGLE 5"/>
+        <filter val="KIT FILTRO DE AIRE PRI Y SEC KOMAI 47362223 / 47362227 570 575 ST SV"/>
+        <filter val="KIT FILTROS CAT313"/>
+        <filter val="KIT FILTROS DE AIRE FLEETGUARD"/>
+        <filter val="KIT FILTROS DE AIRE JAC 1040"/>
+        <filter val="KIT FILTROS JMC VIGUS"/>
+        <filter val="KIT FILTROS SR200"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Valores_Separados.xlsx
+++ b/Valores_Separados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://telefonicacorp-my.sharepoint.com/personal/claudio_frias_telefonica_com/Documents/Desktop/Deiba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{08852DCC-9702-4DB8-BC3B-D321C0B8A30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20A492D5-6431-47A9-9113-FDCD2BC5C3D3}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{08852DCC-9702-4DB8-BC3B-D321C0B8A30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E478189-6A6E-4AA7-BDDB-E348B2B6117D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8772,6 +8772,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9064,8 +9068,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1085"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193:F193"/>
+    <sheetView tabSelected="1" topLeftCell="B113" workbookViewId="0">
+      <selection activeCell="E218" sqref="E218:F218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13508,10 +13512,10 @@
       <c r="D193" s="7">
         <v>95.412999999999997</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="10" t="s">
         <v>1223</v>
       </c>
-      <c r="F193" t="s">
+      <c r="F193" s="8" t="s">
         <v>2055</v>
       </c>
       <c r="G193" t="s">
@@ -13577,10 +13581,10 @@
       <c r="D196" s="7">
         <v>82.739000000000004</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E196" s="10" t="s">
         <v>1224</v>
       </c>
-      <c r="F196" t="s">
+      <c r="F196" s="8" t="s">
         <v>2057</v>
       </c>
       <c r="G196" t="s">
@@ -13600,10 +13604,10 @@
       <c r="D197" s="7">
         <v>31.905000000000001</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E197" s="10" t="s">
         <v>1225</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F197" s="8" t="s">
         <v>2006</v>
       </c>
       <c r="G197" t="s">
@@ -13623,10 +13627,10 @@
       <c r="D198" s="7">
         <v>67.888999999999996</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="E198" s="10" t="s">
         <v>1226</v>
       </c>
-      <c r="F198" t="s">
+      <c r="F198" s="8" t="s">
         <v>2058</v>
       </c>
       <c r="G198" t="s">
@@ -13646,10 +13650,10 @@
       <c r="D199" s="7">
         <v>46.264000000000003</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E199" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="8" t="s">
         <v>2059</v>
       </c>
       <c r="G199" t="s">
@@ -13692,10 +13696,10 @@
       <c r="D201" s="7">
         <v>122.38</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="E201" s="10" t="s">
         <v>1228</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="8" t="s">
         <v>2061</v>
       </c>
       <c r="G201">
@@ -13922,10 +13926,10 @@
       <c r="D211" s="7">
         <v>55.46</v>
       </c>
-      <c r="E211" s="3" t="s">
+      <c r="E211" s="10" t="s">
         <v>1235</v>
       </c>
-      <c r="F211" t="s">
+      <c r="F211" s="8" t="s">
         <v>2071</v>
       </c>
       <c r="G211" t="s">
@@ -13945,10 +13949,10 @@
       <c r="D212" s="7">
         <v>53.6</v>
       </c>
-      <c r="E212" s="3">
+      <c r="E212" s="10">
         <v>4329012232</v>
       </c>
-      <c r="F212" t="s">
+      <c r="F212" s="8" t="s">
         <v>2072</v>
       </c>
       <c r="G212" t="s">
@@ -13968,10 +13972,10 @@
       <c r="D213" s="7">
         <v>60.960999999999999</v>
       </c>
-      <c r="E213" s="3">
+      <c r="E213" s="10">
         <v>47362223</v>
       </c>
-      <c r="F213" t="s">
+      <c r="F213" s="8" t="s">
         <v>2073</v>
       </c>
       <c r="G213">
@@ -13991,10 +13995,10 @@
       <c r="D214" s="7">
         <v>41.427999999999997</v>
       </c>
-      <c r="E214" s="3">
+      <c r="E214" s="10">
         <v>47362227</v>
       </c>
-      <c r="F214" t="s">
+      <c r="F214" s="8" t="s">
         <v>2074</v>
       </c>
       <c r="G214">
@@ -14083,10 +14087,10 @@
       <c r="D218" s="7">
         <v>134</v>
       </c>
-      <c r="E218" s="3">
+      <c r="E218" s="10">
         <v>47484442</v>
       </c>
-      <c r="F218" t="s">
+      <c r="F218" s="8" t="s">
         <v>2078</v>
       </c>
       <c r="G218">
